--- a/02_Proyecto/09_Programa de Auditoria/Programa y Auditoria G3.xlsx
+++ b/02_Proyecto/09_Programa de Auditoria/Programa y Auditoria G3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMUEL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1903A1-6703-43E2-9DB6-733ACF3AD688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781F4A7-6056-41E5-AEF1-12523FEE69DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD10F4BE-B24A-4573-8A87-68A3EFC71964}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="146">
   <si>
     <t>2024-DIC-09</t>
   </si>
@@ -498,9 +498,6 @@
     <t>CÓDIGO</t>
   </si>
   <si>
-    <t>Proceso /Responsable / Àrea</t>
-  </si>
-  <si>
     <t>Responsable del proceso</t>
   </si>
   <si>
@@ -523,12 +520,6 @@
     <t xml:space="preserve">Santiago Sañay </t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
     <t>8.1</t>
   </si>
   <si>
@@ -541,198 +532,121 @@
     <t>Observación</t>
   </si>
   <si>
-    <r>
-      <t>Identificación de palabras clave:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Es una tarea clave en las pruebas basadas en palabras clave, ya que el contenido, la granularidad y la estructura de las palabras clave afectan cómo se definen los casos de prueba. Es importante nombrar las palabras clave de manera natural para los usuarios que trabajarán con ellas.</t>
-    </r>
-  </si>
-  <si>
-    <t>Permite estructurar las pruebas de manera clara y reutilizable para tareas como ingreso al sistema y actualización de datos.</t>
-  </si>
-  <si>
-    <r>
-      <t>Composición de casos de prueba:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Los casos de prueba basados en palabras clave pueden crearse a partir de palabras clave previamente definidas y documentarse en tablas o bases de datos. Esto facilita que diferentes probadores diseñen capas independientes.</t>
-    </r>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>Facilita la documentación y ejecución de pruebas para funcionalidades como CRUD en Google Sheets.</t>
-  </si>
-  <si>
-    <r>
-      <t>Preparación de datos de prueba:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Los datos deben organizarse y estar disponibles para ejecutar las pruebas relacionadas con los requisitos funcionales, como la creación o modificación de usuarios.</t>
-    </r>
-  </si>
-  <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>Es esencial para garantizar que los datos de prueba reflejen los escenarios reales y permitan validar las operaciones CRUD.</t>
-  </si>
-  <si>
-    <t>Aumenta la eficiencia al ejecutar pruebas repetitivas, como verificar datos personales o actualizar contraseñas.</t>
-  </si>
-  <si>
-    <r>
-      <t>Verificación de resultados:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Es importante comprobar que los datos ingresados o consultados coincidan con los resultados esperados, como las contraseñas actualizadas o los datos personales correctos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Asegura que las funcionalidades cumplen con los objetivos definidos en los requisitos del sistema.</t>
-  </si>
-  <si>
-    <r>
-      <t>Reporte de defectos durante la ejecución:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Si se detectan errores (por ejemplo, en la actualización de datos), es importante reportarlos para su resolución.</t>
-    </r>
-  </si>
-  <si>
-    <t>Proporciona un marco para registrar y rastrear defectos encontrados durante la auditoría del sistema.</t>
-  </si>
-  <si>
     <t>CLAUSULAS NO APLICABLES</t>
-  </si>
-  <si>
-    <r>
-      <t>Gestión de configuraciones de prueba:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Implica la gestión de diferentes configuraciones del entorno de prueba.</t>
-    </r>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>El sistema utiliza Google Sheets y no requiere un entorno de prueba con configuraciones complejas.</t>
-  </si>
-  <si>
-    <r>
-      <t>Pruebas basadas en datos:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Reutiliza secuencias de acciones con diferentes datos para pruebas exhaustivas.</t>
-    </r>
-  </si>
-  <si>
-    <t>No se contempla reutilizar datos parametrizados en este proyecto, ya que los escenarios son básicos y directos.</t>
-  </si>
-  <si>
-    <r>
-      <t>Pruebas de mantenimiento:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verifica cambios en el sistema tras implementaciones o modificaciones.</t>
-    </r>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>Este sistema es nuevo y no se encuentra en una fase de mantenimiento.</t>
-  </si>
-  <si>
-    <r>
-      <t>Pruebas basadas en rendimiento:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Evalúa el comportamiento del sistema bajo carga o estrés.</t>
-    </r>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>El alcance actual no incluye evaluar rendimiento o escalabilidad del sistema, ya que es un proyecto pequeño.</t>
-  </si>
-  <si>
-    <r>
-      <t>Ejecución de pruebas automatizadas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Los casos de prueba repetitivos, como el ingreso al sistema, pueden automatizarse para mejorar la eficiencia.</t>
-    </r>
   </si>
   <si>
     <t>Elaborado por Equipo 3</t>
   </si>
   <si>
     <t>Ing. Jenny Ruiz Msc</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Identificación de palabras clave</t>
+  </si>
+  <si>
+    <t>5.3, 5.4, 5.7, 6.2, 6.3, 6.4, 6.5, 6.6.1, 6.6.3, 6.6.7</t>
+  </si>
+  <si>
+    <t>Estas cláusulas son esenciales para clasificar palabras clave según criterios reutilizables y documentar la relación con datos y procedimientos dinámicos.</t>
+  </si>
+  <si>
+    <t>Composición de casos de prueba</t>
+  </si>
+  <si>
+    <t>5.1, 5.3, 5.4, 6.2, 6.3, 6.4, 6.5, 6.6.2, 6.6.4, 6.7</t>
+  </si>
+  <si>
+    <t>Ayudan a estructurar y documentar casos de prueba reutilizables, incluyendo la asociación de palabras clave con módulos y flujos de pruebas automatizadas.</t>
+  </si>
+  <si>
+    <t>Capas en pruebas basadas en palabras clave</t>
+  </si>
+  <si>
+    <t>5.2, 5.3, 5.4, 5.6, 5.7, 6.3, 6.5, 6.6.1, 6.6.3, 6.6.4</t>
+  </si>
+  <si>
+    <t>Estas cláusulas facilitan el diseño estructurado de pruebas por capas, vinculando cada capa con módulos de prueba y características específicas.</t>
+  </si>
+  <si>
+    <t>Tipos de palabras clave</t>
+  </si>
+  <si>
+    <t>5.3, 5.4, 5.5, 5.6, 6.2, 6.3, 6.4, 6.6.2, 6.6.5, 6.6.7</t>
+  </si>
+  <si>
+    <t>Clasifican palabras clave en simples o complejas y las relacionan con escenarios de prueba, asegurando consistencia y flexibilidad en los procedimientos.</t>
+  </si>
+  <si>
+    <t>Pruebas basadas en datos</t>
+  </si>
+  <si>
+    <t>5.4, 5.5, 5.7, 6.2, 6.3, 6.4, 6.6.3, 6.6.4, 6.6.5, 6.6.7</t>
+  </si>
+  <si>
+    <t>Integran datos dinámicos con pruebas automatizadas, documentando su relación con palabras clave y garantizando la cobertura de escenarios múltiples.</t>
+  </si>
+  <si>
+    <t>Modularidad y refactorización</t>
+  </si>
+  <si>
+    <t>5.3, 5.4, 5.5, 5.6, 6.2, 6.3, 6.4, 6.6.1, 6.6.4, 6.6.7</t>
+  </si>
+  <si>
+    <t>Facilitan el mantenimiento de pruebas al estructurar módulos reutilizables y definir procedimientos para escenarios dinámicos.</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Se enfoca en herramientas específicas para automatización que no se aplicaron directamente a los procesos seleccionados, ya que no requieren especificar herramientas en esta fase.</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Describe un marco general para pruebas basadas en palabras clave, pero su nivel de detalle es demasiado genérico para las actividades concretas de los procesos definidos.</t>
+  </si>
+  <si>
+    <t>6.6.6</t>
+  </si>
+  <si>
+    <t>Aunque relevante para pruebas avanzadas, se orienta a procedimientos de optimización que no son el enfoque inmediato en estos procesos.</t>
+  </si>
+  <si>
+    <t>6.6.8</t>
+  </si>
+  <si>
+    <t>Esta cláusula aborda pruebas de integración más complejas que no se relacionan directamente con los procesos de palabras clave.</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Relacionada con la implementación de pruebas en entornos específicos, no se incluyó porque los procesos no mencionan entornos concretos.</t>
+  </si>
+  <si>
+    <t>Proporciona ejemplos específicos para dominios particulares que no fueron aplicables directamente a los procesos generales definidos aquí.</t>
+  </si>
+  <si>
+    <t>Orientada a la evaluación de métricas de rendimiento en pruebas automatizadas, que no se consideró prioridad inmediata en los procesos definidos.</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Esta cláusula aborda pruebas basadas en niveles de complejidad avanzada, las cuales no se están abordando en las actividades iniciales.</t>
+  </si>
+  <si>
+    <t>Relacionada con el monitoreo continuo de pruebas automatizadas, no es relevante para las etapas iniciales de los procesos seleccionados.</t>
+  </si>
+  <si>
+    <t>Documentación sobre métricas específicas, pero no aplicable a los procesos definidos por su enfoque genérico.</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1323,57 +1237,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1389,7 +1259,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1560,7 +1430,6 @@
     <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,35 +1446,13 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="26" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1630,92 +1477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1747,8 +1513,96 @@
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2167,50 +2021,50 @@
     </row>
     <row r="2" spans="1:63" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="100" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
@@ -2234,50 +2088,50 @@
     </row>
     <row r="3" spans="1:63" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="100" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="100"/>
+      <c r="AP3" s="120"/>
+      <c r="AQ3" s="120"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
@@ -2301,52 +2155,52 @@
     </row>
     <row r="4" spans="1:63" ht="21" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="100" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
@@ -2374,7 +2228,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="126"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2434,50 +2288,50 @@
       <c r="BK5" s="2"/>
     </row>
     <row r="6" spans="1:63" ht="53.25" customHeight="1">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="103"/>
-      <c r="AO6" s="103"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="103"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121"/>
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
       <c r="AT6" s="6"/>
@@ -2494,50 +2348,50 @@
       <c r="BE6" s="7"/>
     </row>
     <row r="7" spans="1:63" ht="26.25" customHeight="1">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="6"/>
@@ -2554,50 +2408,50 @@
       <c r="BE7" s="7"/>
     </row>
     <row r="8" spans="1:63" ht="51" customHeight="1">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="122"/>
+      <c r="AO8" s="122"/>
+      <c r="AP8" s="122"/>
+      <c r="AQ8" s="122"/>
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
@@ -2618,7 +2472,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="127"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2672,50 +2526,50 @@
       <c r="BE9" s="7"/>
     </row>
     <row r="10" spans="1:63" ht="20.25" customHeight="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="104"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="104"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="104"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="122"/>
+      <c r="AO10" s="122"/>
+      <c r="AP10" s="122"/>
+      <c r="AQ10" s="122"/>
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
@@ -2733,50 +2587,50 @@
     </row>
     <row r="11" spans="1:63" ht="60" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="121"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
@@ -2799,50 +2653,50 @@
       <c r="BK11" s="8"/>
     </row>
     <row r="12" spans="1:63" ht="20.25" customHeight="1">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="103"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="103"/>
-      <c r="AO12" s="103"/>
-      <c r="AP12" s="103"/>
-      <c r="AQ12" s="103"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
@@ -2859,50 +2713,50 @@
       <c r="BE12" s="7"/>
     </row>
     <row r="13" spans="1:63" ht="20.25" customHeight="1">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="121"/>
+      <c r="AQ13" s="121"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="6"/>
@@ -2923,7 +2777,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="127"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -2977,50 +2831,50 @@
       <c r="BE14" s="7"/>
     </row>
     <row r="15" spans="1:63" ht="24.75" customHeight="1">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="101"/>
-      <c r="AK15" s="101"/>
-      <c r="AL15" s="101"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="101"/>
-      <c r="AO15" s="101"/>
-      <c r="AP15" s="101"/>
-      <c r="AQ15" s="101"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
       <c r="AR15" s="6"/>
       <c r="AS15" s="6"/>
       <c r="AT15" s="6"/>
@@ -3038,50 +2892,50 @@
     </row>
     <row r="16" spans="1:63" ht="24.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="105"/>
-      <c r="AI16" s="105"/>
-      <c r="AJ16" s="105"/>
-      <c r="AK16" s="105"/>
-      <c r="AL16" s="105"/>
-      <c r="AM16" s="105"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="105"/>
-      <c r="AP16" s="105"/>
-      <c r="AQ16" s="105"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="112"/>
+      <c r="AC16" s="112"/>
+      <c r="AD16" s="112"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="112"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="112"/>
+      <c r="AM16" s="112"/>
+      <c r="AN16" s="112"/>
+      <c r="AO16" s="112"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="112"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12"/>
@@ -3104,50 +2958,50 @@
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="1:63" ht="24.75" customHeight="1">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="101"/>
-      <c r="AJ17" s="101"/>
-      <c r="AK17" s="101"/>
-      <c r="AL17" s="101"/>
-      <c r="AM17" s="101"/>
-      <c r="AN17" s="101"/>
-      <c r="AO17" s="101"/>
-      <c r="AP17" s="101"/>
-      <c r="AQ17" s="101"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
@@ -3164,48 +3018,48 @@
       <c r="BE17" s="7"/>
     </row>
     <row r="18" spans="1:63" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
@@ -3223,64 +3077,64 @@
     </row>
     <row r="19" spans="1:63" ht="10.5" customHeight="1" thickBot="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="128" t="s">
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="G19" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109" t="s">
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109" t="s">
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="109"/>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="109" t="s">
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="AF19" s="109"/>
-      <c r="AG19" s="109"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="109"/>
-      <c r="AJ19" s="109"/>
-      <c r="AK19" s="109"/>
-      <c r="AL19" s="109"/>
-      <c r="AM19" s="114" t="s">
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="114"/>
-      <c r="AP19" s="114"/>
-      <c r="AQ19" s="110" t="s">
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="111"/>
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="118" t="s">
         <v>21</v>
       </c>
       <c r="AR19" s="14"/>
@@ -3306,48 +3160,48 @@
     </row>
     <row r="20" spans="1:63" ht="10.5" customHeight="1" thickBot="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="109"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="110"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="111"/>
+      <c r="AN20" s="111"/>
+      <c r="AO20" s="111"/>
+      <c r="AP20" s="111"/>
+      <c r="AQ20" s="118"/>
       <c r="AR20" s="14"/>
       <c r="AS20" s="14"/>
       <c r="AT20" s="14"/>
@@ -3371,80 +3225,80 @@
     </row>
     <row r="21" spans="1:63" ht="34.5" customHeight="1" thickBot="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="111" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111" t="s">
+      <c r="H21" s="109"/>
+      <c r="I21" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111" t="s">
+      <c r="J21" s="109"/>
+      <c r="K21" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111" t="s">
+      <c r="L21" s="109"/>
+      <c r="M21" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111" t="s">
+      <c r="N21" s="109"/>
+      <c r="O21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111" t="s">
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111" t="s">
+      <c r="R21" s="109"/>
+      <c r="S21" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111" t="s">
+      <c r="T21" s="109"/>
+      <c r="U21" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="111"/>
-      <c r="W21" s="111" t="s">
+      <c r="V21" s="109"/>
+      <c r="W21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="111" t="s">
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="Z21" s="111"/>
-      <c r="AA21" s="111" t="s">
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AB21" s="111"/>
-      <c r="AC21" s="111" t="s">
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AD21" s="111"/>
-      <c r="AE21" s="111" t="s">
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="AF21" s="111"/>
-      <c r="AG21" s="111" t="s">
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AH21" s="111"/>
-      <c r="AI21" s="111" t="s">
+      <c r="AH21" s="109"/>
+      <c r="AI21" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AJ21" s="111"/>
-      <c r="AK21" s="111" t="s">
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AL21" s="111"/>
-      <c r="AM21" s="114"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="114"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="110"/>
+      <c r="AL21" s="109"/>
+      <c r="AM21" s="111"/>
+      <c r="AN21" s="111"/>
+      <c r="AO21" s="111"/>
+      <c r="AP21" s="111"/>
+      <c r="AQ21" s="118"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
       <c r="AT21" s="15"/>
@@ -3468,11 +3322,11 @@
     </row>
     <row r="22" spans="1:63" ht="38.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="128"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="16" t="s">
         <v>26</v>
       </c>
@@ -3569,11 +3423,11 @@
       <c r="AL22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AM22" s="99"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="110"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="101"/>
+      <c r="AO22" s="101"/>
+      <c r="AP22" s="101"/>
+      <c r="AQ22" s="118"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
       <c r="AT22" s="14"/>
@@ -3600,12 +3454,12 @@
       <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="129">
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="91">
         <v>1</v>
       </c>
       <c r="G23" s="19"/>
@@ -3642,12 +3496,12 @@
       <c r="AJ23" s="20"/>
       <c r="AK23" s="20"/>
       <c r="AL23" s="20"/>
-      <c r="AM23" s="115" t="s">
+      <c r="AM23" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AN23" s="115"/>
-      <c r="AO23" s="115"/>
-      <c r="AP23" s="115"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="107"/>
+      <c r="AP23" s="107"/>
       <c r="AQ23" s="22" t="s">
         <v>53</v>
       </c>
@@ -3677,12 +3531,12 @@
       <c r="B24" s="18">
         <v>2</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="129">
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="91">
         <v>2</v>
       </c>
       <c r="G24" s="19"/>
@@ -3717,12 +3571,12 @@
       <c r="AJ24" s="20"/>
       <c r="AK24" s="20"/>
       <c r="AL24" s="20"/>
-      <c r="AM24" s="113" t="s">
+      <c r="AM24" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="AN24" s="113"/>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
+      <c r="AN24" s="110"/>
+      <c r="AO24" s="110"/>
+      <c r="AP24" s="110"/>
       <c r="AQ24" s="22" t="s">
         <v>53</v>
       </c>
@@ -3752,12 +3606,12 @@
       <c r="B25" s="18">
         <v>3</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="129">
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="91">
         <v>3</v>
       </c>
       <c r="G25" s="20"/>
@@ -3794,12 +3648,12 @@
       <c r="AJ25" s="20"/>
       <c r="AK25" s="20"/>
       <c r="AL25" s="20"/>
-      <c r="AM25" s="115" t="s">
+      <c r="AM25" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="AN25" s="115"/>
-      <c r="AO25" s="115"/>
-      <c r="AP25" s="115"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="107"/>
       <c r="AQ25" s="22" t="s">
         <v>58</v>
       </c>
@@ -3829,12 +3683,12 @@
       <c r="B26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="129">
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="91">
         <v>4</v>
       </c>
       <c r="G26" s="20"/>
@@ -3871,12 +3725,12 @@
       <c r="AJ26" s="20"/>
       <c r="AK26" s="20"/>
       <c r="AL26" s="20"/>
-      <c r="AM26" s="115" t="s">
+      <c r="AM26" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="AN26" s="115"/>
-      <c r="AO26" s="115"/>
-      <c r="AP26" s="115"/>
+      <c r="AN26" s="107"/>
+      <c r="AO26" s="107"/>
+      <c r="AP26" s="107"/>
       <c r="AQ26" s="22" t="s">
         <v>62</v>
       </c>
@@ -3906,12 +3760,12 @@
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="129">
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="91">
         <v>5</v>
       </c>
       <c r="G27" s="20"/>
@@ -3948,12 +3802,12 @@
       <c r="AJ27" s="20"/>
       <c r="AK27" s="20"/>
       <c r="AL27" s="20"/>
-      <c r="AM27" s="115" t="s">
+      <c r="AM27" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="AN27" s="115"/>
-      <c r="AO27" s="115"/>
-      <c r="AP27" s="115"/>
+      <c r="AN27" s="107"/>
+      <c r="AO27" s="107"/>
+      <c r="AP27" s="107"/>
       <c r="AQ27" s="22" t="s">
         <v>62</v>
       </c>
@@ -3983,12 +3837,12 @@
       <c r="B28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="129">
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="91">
         <v>6</v>
       </c>
       <c r="G28" s="20"/>
@@ -4025,12 +3879,12 @@
       <c r="AJ28" s="20"/>
       <c r="AK28" s="20"/>
       <c r="AL28" s="20"/>
-      <c r="AM28" s="115" t="s">
+      <c r="AM28" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="AN28" s="115"/>
-      <c r="AO28" s="115"/>
-      <c r="AP28" s="115"/>
+      <c r="AN28" s="107"/>
+      <c r="AO28" s="107"/>
+      <c r="AP28" s="107"/>
       <c r="AQ28" s="22" t="s">
         <v>62</v>
       </c>
@@ -4060,12 +3914,12 @@
       <c r="B29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="129">
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="91">
         <v>7</v>
       </c>
       <c r="G29" s="20"/>
@@ -4102,12 +3956,12 @@
       <c r="AJ29" s="20"/>
       <c r="AK29" s="20"/>
       <c r="AL29" s="20"/>
-      <c r="AM29" s="115" t="s">
+      <c r="AM29" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="AN29" s="115"/>
-      <c r="AO29" s="115"/>
-      <c r="AP29" s="115"/>
+      <c r="AN29" s="107"/>
+      <c r="AO29" s="107"/>
+      <c r="AP29" s="107"/>
       <c r="AQ29" s="22" t="s">
         <v>62</v>
       </c>
@@ -4137,12 +3991,12 @@
       <c r="B30" s="18">
         <v>4</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="129">
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="91">
         <v>8</v>
       </c>
       <c r="G30" s="20"/>
@@ -4179,12 +4033,12 @@
       <c r="AJ30" s="20"/>
       <c r="AK30" s="20"/>
       <c r="AL30" s="20"/>
-      <c r="AM30" s="115" t="s">
+      <c r="AM30" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AN30" s="115"/>
-      <c r="AO30" s="115"/>
-      <c r="AP30" s="115"/>
+      <c r="AN30" s="107"/>
+      <c r="AO30" s="107"/>
+      <c r="AP30" s="107"/>
       <c r="AQ30" s="22" t="s">
         <v>58</v>
       </c>
@@ -4214,12 +4068,12 @@
       <c r="B31" s="18">
         <v>5</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="129">
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="91">
         <v>9</v>
       </c>
       <c r="G31" s="20"/>
@@ -4256,12 +4110,12 @@
       <c r="AJ31" s="20"/>
       <c r="AK31" s="20"/>
       <c r="AL31" s="20"/>
-      <c r="AM31" s="115" t="s">
+      <c r="AM31" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="AN31" s="115"/>
-      <c r="AO31" s="115"/>
-      <c r="AP31" s="115"/>
+      <c r="AN31" s="107"/>
+      <c r="AO31" s="107"/>
+      <c r="AP31" s="107"/>
       <c r="AQ31" s="22" t="s">
         <v>76</v>
       </c>
@@ -4291,12 +4145,12 @@
       <c r="B32" s="18">
         <v>6</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="129">
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="91">
         <v>10</v>
       </c>
       <c r="G32" s="20"/>
@@ -4333,12 +4187,12 @@
       <c r="AJ32" s="20"/>
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
-      <c r="AM32" s="115" t="s">
+      <c r="AM32" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="AN32" s="115"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="115"/>
+      <c r="AN32" s="107"/>
+      <c r="AO32" s="107"/>
+      <c r="AP32" s="107"/>
       <c r="AQ32" s="22" t="s">
         <v>79</v>
       </c>
@@ -4368,7 +4222,7 @@
       <c r="B33" s="18"/>
       <c r="C33" s="25"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="130"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -4433,7 +4287,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="34"/>
       <c r="E34" s="35"/>
-      <c r="F34" s="130"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
@@ -4498,7 +4352,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="34"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="130"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -4563,7 +4417,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
-      <c r="F36" s="130"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -4628,7 +4482,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="34"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="130"/>
+      <c r="F37" s="92"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
@@ -4690,10 +4544,10 @@
     <row r="38" spans="1:63" ht="2.25" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="131"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="93"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
@@ -4726,12 +4580,12 @@
       <c r="AJ38" s="20"/>
       <c r="AK38" s="20"/>
       <c r="AL38" s="20"/>
-      <c r="AM38" s="115" t="s">
+      <c r="AM38" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="AN38" s="115"/>
-      <c r="AO38" s="115"/>
-      <c r="AP38" s="115"/>
+      <c r="AN38" s="107"/>
+      <c r="AO38" s="107"/>
+      <c r="AP38" s="107"/>
       <c r="AQ38" s="22"/>
       <c r="AR38" s="17"/>
       <c r="AS38" s="17"/>
@@ -4757,10 +4611,10 @@
     <row r="39" spans="1:63" ht="2.25" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="132"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -4793,10 +4647,10 @@
       <c r="AJ39" s="20"/>
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
-      <c r="AM39" s="116"/>
-      <c r="AN39" s="116"/>
-      <c r="AO39" s="116"/>
-      <c r="AP39" s="116"/>
+      <c r="AM39" s="102"/>
+      <c r="AN39" s="102"/>
+      <c r="AO39" s="102"/>
+      <c r="AP39" s="102"/>
       <c r="AQ39" s="22"/>
       <c r="AR39" s="17"/>
       <c r="AS39" s="17"/>
@@ -4822,10 +4676,10 @@
     <row r="40" spans="1:63" ht="2.25" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="132"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="94"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
@@ -4858,10 +4712,10 @@
       <c r="AJ40" s="24"/>
       <c r="AK40" s="20"/>
       <c r="AL40" s="20"/>
-      <c r="AM40" s="116"/>
-      <c r="AN40" s="116"/>
-      <c r="AO40" s="116"/>
-      <c r="AP40" s="116"/>
+      <c r="AM40" s="102"/>
+      <c r="AN40" s="102"/>
+      <c r="AO40" s="102"/>
+      <c r="AP40" s="102"/>
       <c r="AQ40" s="22"/>
       <c r="AR40" s="17"/>
       <c r="AS40" s="17"/>
@@ -4887,10 +4741,10 @@
     <row r="41" spans="1:63" ht="2.25" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="132"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="94"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -4923,10 +4777,10 @@
       <c r="AJ41" s="20"/>
       <c r="AK41" s="20"/>
       <c r="AL41" s="20"/>
-      <c r="AM41" s="116"/>
-      <c r="AN41" s="116"/>
-      <c r="AO41" s="116"/>
-      <c r="AP41" s="116"/>
+      <c r="AM41" s="102"/>
+      <c r="AN41" s="102"/>
+      <c r="AO41" s="102"/>
+      <c r="AP41" s="102"/>
       <c r="AQ41" s="22"/>
       <c r="AR41" s="17"/>
       <c r="AS41" s="17"/>
@@ -4952,10 +4806,10 @@
     <row r="42" spans="1:63" ht="2.25" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="132"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="94"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -4988,10 +4842,10 @@
       <c r="AJ42" s="20"/>
       <c r="AK42" s="20"/>
       <c r="AL42" s="20"/>
-      <c r="AM42" s="116"/>
-      <c r="AN42" s="116"/>
-      <c r="AO42" s="116"/>
-      <c r="AP42" s="116"/>
+      <c r="AM42" s="102"/>
+      <c r="AN42" s="102"/>
+      <c r="AO42" s="102"/>
+      <c r="AP42" s="102"/>
       <c r="AQ42" s="22"/>
       <c r="AR42" s="17"/>
       <c r="AS42" s="17"/>
@@ -5052,10 +4906,10 @@
       <c r="AJ43" s="42"/>
       <c r="AK43" s="42"/>
       <c r="AL43" s="42"/>
-      <c r="AM43" s="106"/>
-      <c r="AN43" s="106"/>
-      <c r="AO43" s="106"/>
-      <c r="AP43" s="106"/>
+      <c r="AM43" s="104"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
+      <c r="AP43" s="104"/>
       <c r="AQ43" s="43"/>
     </row>
     <row r="44" spans="1:63" ht="12.75" customHeight="1">
@@ -5064,7 +4918,7 @@
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
-      <c r="F44" s="133"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
       <c r="I44" s="45"/>
@@ -5097,10 +4951,10 @@
       <c r="AJ44" s="45"/>
       <c r="AK44" s="45"/>
       <c r="AL44" s="42"/>
-      <c r="AM44" s="106"/>
-      <c r="AN44" s="106"/>
-      <c r="AO44" s="106"/>
-      <c r="AP44" s="106"/>
+      <c r="AM44" s="104"/>
+      <c r="AN44" s="104"/>
+      <c r="AO44" s="104"/>
+      <c r="AP44" s="104"/>
       <c r="AQ44" s="43"/>
     </row>
     <row r="45" spans="1:63" ht="19.5" customHeight="1">
@@ -5109,7 +4963,7 @@
       <c r="C45" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="134"/>
+      <c r="F45" s="96"/>
       <c r="G45" s="48" t="s">
         <v>82</v>
       </c>
@@ -5118,17 +4972,17 @@
       <c r="J45" s="17"/>
       <c r="AJ45" s="50"/>
       <c r="AK45" s="50"/>
-      <c r="AM45" s="106"/>
-      <c r="AN45" s="106"/>
-      <c r="AO45" s="106"/>
-      <c r="AP45" s="106"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
+      <c r="AP45" s="104"/>
       <c r="AQ45" s="39"/>
     </row>
     <row r="46" spans="1:63" ht="18.75" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="40"/>
       <c r="C46" s="44"/>
-      <c r="F46" s="133"/>
+      <c r="F46" s="95"/>
       <c r="I46" s="50"/>
       <c r="J46" s="51"/>
       <c r="K46" s="51"/>
@@ -5168,7 +5022,7 @@
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="54"/>
-      <c r="F47" s="133"/>
+      <c r="F47" s="95"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="52"/>
@@ -5213,7 +5067,7 @@
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
       <c r="E48" s="54"/>
-      <c r="F48" s="135"/>
+      <c r="F48" s="97"/>
       <c r="G48" s="48" t="s">
         <v>83</v>
       </c>
@@ -5237,7 +5091,7 @@
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
       <c r="E49" s="54"/>
-      <c r="F49" s="133"/>
+      <c r="F49" s="95"/>
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
       <c r="I49" s="52"/>
@@ -5279,49 +5133,49 @@
     <row r="50" spans="1:43" ht="39.75" customHeight="1">
       <c r="A50" s="39"/>
       <c r="B50" s="40"/>
-      <c r="C50" s="118" t="s">
+      <c r="C50" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="118"/>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="118"/>
-      <c r="T50" s="118"/>
-      <c r="U50" s="118"/>
-      <c r="V50" s="118"/>
-      <c r="W50" s="118"/>
-      <c r="X50" s="118"/>
-      <c r="Y50" s="118"/>
-      <c r="Z50" s="118"/>
-      <c r="AA50" s="118"/>
-      <c r="AB50" s="118"/>
-      <c r="AC50" s="118"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="118"/>
-      <c r="AF50" s="118"/>
-      <c r="AG50" s="118"/>
-      <c r="AH50" s="118"/>
-      <c r="AI50" s="118"/>
-      <c r="AJ50" s="118"/>
-      <c r="AK50" s="118"/>
-      <c r="AL50" s="118"/>
-      <c r="AM50" s="118"/>
-      <c r="AN50" s="118"/>
-      <c r="AO50" s="118"/>
-      <c r="AP50" s="118"/>
-      <c r="AQ50" s="118"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="105"/>
+      <c r="U50" s="105"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="105"/>
+      <c r="X50" s="105"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="105"/>
+      <c r="AA50" s="105"/>
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="105"/>
+      <c r="AE50" s="105"/>
+      <c r="AF50" s="105"/>
+      <c r="AG50" s="105"/>
+      <c r="AH50" s="105"/>
+      <c r="AI50" s="105"/>
+      <c r="AJ50" s="105"/>
+      <c r="AK50" s="105"/>
+      <c r="AL50" s="105"/>
+      <c r="AM50" s="105"/>
+      <c r="AN50" s="105"/>
+      <c r="AO50" s="105"/>
+      <c r="AP50" s="105"/>
+      <c r="AQ50" s="105"/>
     </row>
     <row r="51" spans="1:43" ht="11.25" customHeight="1" thickBot="1">
       <c r="A51" s="39"/>
@@ -5329,7 +5183,7 @@
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
-      <c r="F51" s="136"/>
+      <c r="F51" s="98"/>
       <c r="G51" s="61"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
@@ -5421,24 +5275,24 @@
       <c r="B55" s="1"/>
       <c r="D55" s="64"/>
       <c r="E55" s="64"/>
-      <c r="F55" s="137"/>
-      <c r="Q55" s="139" t="s">
-        <v>137</v>
+      <c r="F55" s="99"/>
+      <c r="Q55" s="106" t="s">
+        <v>110</v>
       </c>
-      <c r="R55" s="139"/>
-      <c r="S55" s="139"/>
-      <c r="T55" s="139"/>
-      <c r="U55" s="139"/>
+      <c r="R55" s="106"/>
+      <c r="S55" s="106"/>
+      <c r="T55" s="106"/>
+      <c r="U55" s="106"/>
     </row>
     <row r="56" spans="1:43" ht="24.6" customHeight="1">
-      <c r="B56" s="117" t="s">
-        <v>136</v>
+      <c r="B56" s="103" t="s">
+        <v>109</v>
       </c>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
       <c r="Q56" s="65" t="s">
         <v>85</v>
       </c>
@@ -5471,7 +5325,7 @@
       <c r="AI57" s="17"/>
     </row>
     <row r="59" spans="1:43" ht="15" customHeight="1">
-      <c r="F59" s="138"/>
+      <c r="F59" s="100"/>
       <c r="G59" s="67"/>
     </row>
     <row r="60" spans="1:43" ht="15" customHeight="1">
@@ -5482,16 +5336,16 @@
       <c r="D60" s="68">
         <v>45663</v>
       </c>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
       <c r="J60" s="69"/>
       <c r="Q60" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:43" ht="12" customHeight="1">
-      <c r="F61" s="138"/>
+      <c r="F61" s="100"/>
       <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:43" ht="12" customHeight="1">
@@ -43798,40 +43652,41 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="C50:AQ50"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="G3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="B15:AQ15"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="B6:AQ6"/>
+    <mergeCell ref="B7:AQ7"/>
+    <mergeCell ref="B8:AQ8"/>
+    <mergeCell ref="B10:AQ10"/>
+    <mergeCell ref="B11:AQ11"/>
+    <mergeCell ref="B12:AQ12"/>
+    <mergeCell ref="B13:AQ13"/>
+    <mergeCell ref="B16:AQ16"/>
+    <mergeCell ref="B17:AQ17"/>
+    <mergeCell ref="B18:AQ18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:N20"/>
+    <mergeCell ref="O19:V20"/>
+    <mergeCell ref="W19:AD20"/>
+    <mergeCell ref="AE19:AL20"/>
+    <mergeCell ref="AQ19:AQ22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="U21:V21"/>
@@ -43848,41 +43703,40 @@
     <mergeCell ref="AK21:AL21"/>
     <mergeCell ref="AM22:AP22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B16:AQ16"/>
-    <mergeCell ref="B17:AQ17"/>
-    <mergeCell ref="B18:AQ18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:N20"/>
-    <mergeCell ref="O19:V20"/>
-    <mergeCell ref="W19:AD20"/>
-    <mergeCell ref="AE19:AL20"/>
-    <mergeCell ref="AQ19:AQ22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B15:AQ15"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="B6:AQ6"/>
-    <mergeCell ref="B7:AQ7"/>
-    <mergeCell ref="B8:AQ8"/>
-    <mergeCell ref="B10:AQ10"/>
-    <mergeCell ref="B11:AQ11"/>
-    <mergeCell ref="B12:AQ12"/>
-    <mergeCell ref="B13:AQ13"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="G3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="C50:AQ50"/>
+    <mergeCell ref="Q55:U55"/>
   </mergeCells>
   <conditionalFormatting sqref="F59:G59 F60">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
@@ -43906,10 +43760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CA8D15-A493-43C0-9B7B-3BEAF7CB5972}">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -43922,405 +43776,481 @@
     <col min="9" max="9" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="121"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="73" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="A5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="124"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="73">
         <v>1</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="70"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="73" t="s">
+    <row r="11" spans="1:13" ht="15" customHeight="1">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="74">
         <v>45634</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="70"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:13" ht="15" customHeight="1">
+      <c r="A12" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="80" t="s">
+    <row r="13" spans="1:13" ht="15" customHeight="1">
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
+      <c r="A14" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="G14" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="H14" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="I14" s="131" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+    </row>
+    <row r="15" spans="1:13" ht="122.25" customHeight="1">
+      <c r="A15" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="88" t="s">
-        <v>109</v>
+      <c r="B15" s="81">
+        <v>45635</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="122.25" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="C15" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="90">
-        <v>45635</v>
-      </c>
-      <c r="C15" s="91" t="s">
+      <c r="D15" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="E15" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="93" t="s">
-        <v>110</v>
+      <c r="G15" s="86"/>
+      <c r="H15" s="84" t="s">
+        <v>113</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="I15" s="87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="110.25" customHeight="1">
+      <c r="A16" s="123"/>
+      <c r="B16" s="81">
+        <v>45637</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="86"/>
+      <c r="H16" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="111.75" customHeight="1">
+      <c r="A17" s="123"/>
+      <c r="B17" s="81">
+        <v>45642</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="86"/>
+      <c r="H17" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="87" customHeight="1">
+      <c r="A18" s="123"/>
+      <c r="B18" s="81">
+        <v>45644</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="88"/>
+      <c r="H18" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="87" customHeight="1">
+      <c r="A19" s="123"/>
+      <c r="B19" s="81">
+        <v>45663</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="88"/>
+      <c r="H19" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="69" customHeight="1">
+      <c r="A20" s="123"/>
+      <c r="B20" s="81">
+        <v>45665</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="88"/>
+      <c r="H20" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="72.75" customHeight="1">
+      <c r="A21" s="123"/>
+      <c r="B21" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+    </row>
+    <row r="22" spans="1:9" ht="54.6" customHeight="1">
+      <c r="A22" s="123"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="54.6" customHeight="1">
+      <c r="A23" s="123"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="54.6" customHeight="1">
+      <c r="A24" s="123"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="54.6" customHeight="1">
+      <c r="A25" s="123"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="54.6" customHeight="1">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="54.6" customHeight="1">
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="54.6" customHeight="1">
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96" t="s">
+      <c r="I28" s="87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="54.6" customHeight="1">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="54.6" customHeight="1">
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="54.6" customHeight="1">
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="96" t="s">
-        <v>111</v>
+      <c r="I31" s="87" t="s">
+        <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="110.25" customHeight="1">
-      <c r="A16" s="119"/>
-      <c r="B16" s="90">
-        <v>45637</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="111.75" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="90">
-        <v>45642</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="87" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="90">
-        <v>45644</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="87" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="90">
-        <v>45663</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="69" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="90">
-        <v>45665</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="72.75" customHeight="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="125"/>
-    </row>
-    <row r="22" spans="1:9" ht="72.75" customHeight="1">
-      <c r="A22" s="120"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="72.75" customHeight="1">
-      <c r="A23" s="120"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="84" customHeight="1">
-      <c r="A24" s="120"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="96" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="84" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="I26" s="89"/>
     </row>
     <row r="34" spans="8:8" ht="15" customHeight="1">
       <c r="H34"/>
